--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1917256.010433769</v>
+        <v>-1920290.342510622</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858983</v>
+        <v>8656875.781858977</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>223.1496256674403</v>
       </c>
       <c r="G2" t="n">
-        <v>38.1124047503758</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>89.89170050005669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.57889759510267</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>110.2526535426571</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>51.03239574649646</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>75.48133722007647</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>218.5035263306621</v>
       </c>
       <c r="X7" t="n">
-        <v>192.2291257165525</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>55.784476171417</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1184,13 +1184,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>166.1781048076848</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>258.2384817986462</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>162.0223670888553</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>121.4542291304338</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>87.42510111489878</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>123.9468996330555</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,16 +1819,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>52.48855624472364</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>29.83003617361336</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>102.8228810500187</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734103036</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>61.60385878690597</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>139.4320192882135</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734103036</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>74.75769145492045</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.5576683533046</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004746</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S25" t="n">
         <v>189.769025331442</v>
@@ -2530,13 +2530,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808338</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4183,7 +4183,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1769.908709296022</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C2" t="n">
-        <v>1400.94619235561</v>
+        <v>1083.098704810766</v>
       </c>
       <c r="D2" t="n">
-        <v>1042.68049374886</v>
+        <v>1083.098704810766</v>
       </c>
       <c r="E2" t="n">
-        <v>656.8922411506155</v>
+        <v>697.3104522125213</v>
       </c>
       <c r="F2" t="n">
-        <v>245.906336361008</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2156.508549360144</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2156.508549360144</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>2156.508549360144</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>2156.508549360144</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>296.1144832717764</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>296.1144832717764</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>296.1144832717764</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>138.3661107043065</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>616.7626674966796</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>616.7626674966796</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>327.5890571512475</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>787.7948591932184</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>857.5948851267888</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>857.5948851267888</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>850.6493843775853</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>432.6855762757722</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>105.490856311775</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1917.302686503266</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1564.534031233152</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1564.534031233152</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1174.39469925734</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.9581501493107</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>533.9581501493107</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X7" t="n">
-        <v>533.9581501493107</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.9581501493107</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1425.774672860787</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1067.508974254036</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>681.720721655792</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.480264781541</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1781.711609511427</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.245851250347</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.106519274536</v>
+        <v>1794.737189801198</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>467.2820328946706</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>467.2820328946706</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="W10" t="n">
-        <v>467.2820328946706</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="X10" t="n">
-        <v>467.2820328946706</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511404</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,67 +5024,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.6776738607301</v>
+        <v>508.0400813400981</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U13" t="n">
-        <v>1420.209926975365</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="V13" t="n">
-        <v>1165.525438769478</v>
+        <v>1288.206478295171</v>
       </c>
       <c r="W13" t="n">
-        <v>876.1082687325173</v>
+        <v>998.7893082582102</v>
       </c>
       <c r="X13" t="n">
-        <v>648.1187178345</v>
+        <v>910.481125313868</v>
       </c>
       <c r="Y13" t="n">
-        <v>427.3261386909699</v>
+        <v>689.6885461703379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,7 +5261,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>1999.417367126749</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5379,16 +5379,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>708.1835515663147</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663147</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>220.7599229666323</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>220.7599229666323</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1400.041765577045</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1110.624595540085</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.624595540085</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.8320163965544</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,16 +5622,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>885.7654343213993</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>716.8292513934924</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>566.7126119811567</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>418.7995183987636</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>271.9095709008532</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>271.9095709008532</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>125.6923841187109</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5704,19 +5704,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.029470490936</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1184.344982285049</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W19" t="n">
-        <v>894.9278122480886</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>1067.413899151639</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749765</v>
@@ -5735,43 +5735,43 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176163</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811482</v>
+        <v>1236.699401366023</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037945</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542189</v>
+        <v>2602.177459903284</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5786,7 +5786,7 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
         <v>3524.42128699119</v>
@@ -5795,7 +5795,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454334</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.0000320088</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5862,19 +5862,19 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.4810578558177</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C22" t="n">
-        <v>409.4810578558177</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931531</v>
+        <v>1894.117346117923</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1672.350730687449</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1383.247863813093</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208131</v>
+        <v>1128.563375607206</v>
       </c>
       <c r="W22" t="n">
-        <v>858.2631878973651</v>
+        <v>839.1462055702453</v>
       </c>
       <c r="X22" t="n">
-        <v>630.2736369993478</v>
+        <v>611.156654672228</v>
       </c>
       <c r="Y22" t="n">
-        <v>409.4810578558177</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277724</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563071</v>
+        <v>1070.832524924176</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811479</v>
+        <v>1521.866738172583</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483402</v>
+        <v>2055.398642844505</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542183</v>
+        <v>2602.177459903284</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232734</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6017,22 +6017,22 @@
         <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F24" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390114</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919358</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320226</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454338</v>
+        <v>1241.476988454347</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.0000320088</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0738540998292</v>
+        <v>822.6299143867898</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6937314588829</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>503.5770920465471</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>503.5770920465471</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>503.5770920465471</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>335.8742554212661</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300493</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862228</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689055</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258581</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384224</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783372</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413767</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433593</v>
+        <v>1225.07095836056</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998292</v>
+        <v>1004.27837921703</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150016</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532431</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,10 +6634,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,7 +6871,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,13 +7117,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,10 +7260,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7497,10 +7497,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1896.176478190825</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,7 +7734,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1344.266747951538</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,52 +7801,52 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476844</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>400.5976869789383</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>288.0478149561211</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561212</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476912</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>183.7264200742711</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.68903493117506</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>237.8605579700782</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7576090751791</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.2845542741384</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42.07890862597273</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>199.6490870791044</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>66.52238423622472</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>183.3889571555941</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>128.165166544536</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>147.0909790483775</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>92.48912964370739</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>3.197346561016218</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1331196.590794457</v>
+        <v>1331196.590794456</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>71413.33528089309</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
         <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>79416.35737739659</v>
+        <v>79416.35737739662</v>
       </c>
       <c r="F2" t="n">
+        <v>79416.35737739658</v>
+      </c>
+      <c r="G2" t="n">
         <v>79416.35737739661</v>
-      </c>
-      <c r="G2" t="n">
-        <v>79416.35737739662</v>
       </c>
       <c r="H2" t="n">
         <v>79416.35737739659</v>
       </c>
       <c r="I2" t="n">
-        <v>79416.35737739661</v>
+        <v>79416.35737739659</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.093379633287744e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672244</v>
+        <v>395954.8515672259</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131186.7918361228</v>
+        <v>131186.7918361229</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26427,31 +26427,31 @@
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709208</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709196</v>
+        <v>21619.60799709208</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975162</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975162</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="O4" t="n">
         <v>12448.5078997516</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732600.4138331836</v>
+        <v>-732867.6848758222</v>
       </c>
       <c r="C6" t="n">
         <v>-192961.4974694109</v>
@@ -26528,40 +26528,40 @@
         <v>-192961.4974694109</v>
       </c>
       <c r="E6" t="n">
-        <v>-765964.1828668154</v>
+        <v>-766031.3783570414</v>
       </c>
       <c r="F6" t="n">
-        <v>-38586.76887340889</v>
+        <v>-38653.9643636347</v>
       </c>
       <c r="G6" t="n">
-        <v>-38586.76887340892</v>
+        <v>-38653.96436363472</v>
       </c>
       <c r="H6" t="n">
-        <v>-38586.76887340894</v>
+        <v>-38653.96436363211</v>
       </c>
       <c r="I6" t="n">
-        <v>-38586.76887340743</v>
+        <v>-38653.96436363487</v>
       </c>
       <c r="J6" t="n">
-        <v>-429463.2983344629</v>
+        <v>-429463.2983344645</v>
       </c>
       <c r="K6" t="n">
-        <v>-33508.44676723858</v>
+        <v>-33508.44676723861</v>
       </c>
       <c r="L6" t="n">
-        <v>-33508.44676723864</v>
+        <v>-33508.44676723861</v>
       </c>
       <c r="M6" t="n">
-        <v>-163150.7616061833</v>
+        <v>-163150.7616061834</v>
       </c>
       <c r="N6" t="n">
-        <v>-33508.44676723858</v>
+        <v>-33508.44676723859</v>
       </c>
       <c r="O6" t="n">
-        <v>-52936.16476087039</v>
+        <v>-52936.16476087037</v>
       </c>
       <c r="P6" t="n">
-        <v>-33508.44676723864</v>
+        <v>-33508.44676723862</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.141601906669107e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.654273976261431e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.198799748377</v>
+        <v>278.1987997483791</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492738</v>
+        <v>652.4826302492737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>375.6717652704192</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66.24228131368619</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>51.38672419723555</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>101.8928854073618</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>100.8989204983648</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>252.2709212500584</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>68.01947200592892</v>
       </c>
       <c r="X7" t="n">
-        <v>33.48052967248461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>351.0915695702944</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>161.5741536624501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>28.04339244333153</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>90.11527623497273</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166838034</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970236</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681592</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844661</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974797</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003801</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623184</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781683</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563565</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451118</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233582</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970301</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S24" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898485</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297388</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N25" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895878</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712203</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O33" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,7 +33746,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>556.7959610899863</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>340.4395077511235</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359034</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789555</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>939.5188028091651</v>
+        <v>787.7611930989425</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865553986</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923298</v>
       </c>
       <c r="M20" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>840.3496503690299</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509621</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004701</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407858</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265643</v>
+        <v>625.2391015115197</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923298</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302256</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129103</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359093</v>
+        <v>888.8531821509621</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908535</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636235</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597679</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013283</v>
+        <v>451.7942679013399</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525857</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859618</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675396</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O33" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>425.454249006653</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>197.843263306679</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>274.2960242312443</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
